--- a/r4-core-70-restored/all-profiles.xlsx
+++ b/r4-core-70-restored/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:47:46+00:00</t>
+    <t>2024-02-17T15:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
